--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/120.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/120.xlsx
@@ -479,13 +479,13 @@
         <v>-9.673196243466881</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.47274318851026</v>
+        <v>-21.4787664449703</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0133471234506133</v>
+        <v>-0.01891081326516251</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.83587291123812</v>
+        <v>-8.827361150282821</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.654810331940633</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.6165191024525</v>
+        <v>-21.62379883367734</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1393026073629431</v>
+        <v>-0.1440156099826491</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.324673464226626</v>
+        <v>-8.316034589092787</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.592580384590633</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.86089122168838</v>
+        <v>-21.86829317808489</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2861243725832659</v>
+        <v>-0.2898595738295889</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.223446577047152</v>
+        <v>-8.209923584053264</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.488120014684529</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.95540061343271</v>
+        <v>-21.96097897026786</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3134001418937844</v>
+        <v>-0.3148815109744597</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.761723879528837</v>
+        <v>-7.750151600274849</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.334582068955557</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.93893443830494</v>
+        <v>-21.94329543243023</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4495736501579665</v>
+        <v>-0.4530888460952783</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.034205434683825</v>
+        <v>-7.019201072609262</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.128285163074338</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.19021961325064</v>
+        <v>-22.19428726696391</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5509716525777825</v>
+        <v>-0.5516218904910821</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.454193216020503</v>
+        <v>-6.437546147638657</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.857327930471577</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.57096080102537</v>
+        <v>-22.57528757210259</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7279488121532367</v>
+        <v>-0.7284279348261944</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.042313943510386</v>
+        <v>-6.027348693490759</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.50984189781404</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.82441180601311</v>
+        <v>-22.82628429564314</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.851406013556573</v>
+        <v>-0.8521882546552794</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.764554796380347</v>
+        <v>-5.750650460850841</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.084032284619489</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.30863371313297</v>
+        <v>-23.30922039395699</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9414468530245456</v>
+        <v>-0.9423366522743241</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.472216630773167</v>
+        <v>-5.463264859199847</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.580931908031264</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.75108883458877</v>
+        <v>-23.75372400929004</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.184210489001207</v>
+        <v>-1.185007397120514</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.150128858380811</v>
+        <v>-5.140825078313072</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.011169092918994</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23114041885115</v>
+        <v>-24.23340891803739</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.126383315779337</v>
+        <v>-1.125987306223117</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.980030531467106</v>
+        <v>-4.971044536845716</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.390443949143293</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.84438321718889</v>
+        <v>-24.84762951774852</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.047494300974798</v>
+        <v>-1.050202810779069</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.880607687821524</v>
+        <v>-4.871915033612149</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.754162869838359</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.43776686963323</v>
+        <v>-25.43686240336284</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9528626840587919</v>
+        <v>-0.95361070210943</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.76270928722587</v>
+        <v>-4.753415285171864</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.131954137434835</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.07698985046175</v>
+        <v>-26.07684806926261</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9148995457371973</v>
+        <v>-0.91751027540413</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.750168984612233</v>
+        <v>-4.73776557419087</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.552165503592481</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.84186519677686</v>
+        <v>-26.84044494028202</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8340060381172226</v>
+        <v>-0.8371301135051813</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.667402987362229</v>
+        <v>-4.652657742651614</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.040961687192099</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.63571768679218</v>
+        <v>-27.63710372023895</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.732588479669939</v>
+        <v>-0.7370863659875008</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.690087979224715</v>
+        <v>-4.677254336199064</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.616912589866158</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.48134964853499</v>
+        <v>-28.48056007392598</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5859964977723612</v>
+        <v>-0.589105906139719</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.901410412040247</v>
+        <v>-4.886181155649806</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.285694734099132</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.16995159871936</v>
+        <v>-29.1708389534657</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3088386984869528</v>
+        <v>-0.3114298721264177</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.134053803802395</v>
+        <v>-5.117401846413682</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.04196834553948</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.5908266438646</v>
+        <v>-29.59166999754914</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1245671406660614</v>
+        <v>-0.1290259149286879</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.456087797119215</v>
+        <v>-5.436756663967434</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.881537871522871</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.1941227577316</v>
+        <v>-30.19584368814876</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3163772776678646</v>
+        <v>0.3143141167700265</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.737010131692148</v>
+        <v>-5.716275853569562</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.788439122437673</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.72696339363949</v>
+        <v>-30.72862076696738</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3322421049510036</v>
+        <v>0.330320725252306</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.009195810993904</v>
+        <v>-5.98994779095886</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.744350949959021</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.08361155557407</v>
+        <v>-31.08716097455945</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6140884618217834</v>
+        <v>0.6115608452715885</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.313864051919443</v>
+        <v>-6.294396026575388</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.729657439338156</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.28067275535881</v>
+        <v>-31.28683534851456</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8192654130056031</v>
+        <v>0.8173978123824416</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.533233790037917</v>
+        <v>-6.513697318597725</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.730226384192821</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.5750203027883</v>
+        <v>-31.58057910359598</v>
       </c>
       <c r="F25" t="n">
-        <v>1.039891625888874</v>
+        <v>1.038410256808199</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.560186884895219</v>
+        <v>-6.540342406022411</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.730887477505409</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.48044490945126</v>
+        <v>-31.4831803087933</v>
       </c>
       <c r="F26" t="n">
-        <v>1.079160129043935</v>
+        <v>1.076612956466272</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.68997535019121</v>
+        <v>-6.667407694493531</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.721932743058345</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.56822702774672</v>
+        <v>-31.57059086256687</v>
       </c>
       <c r="F27" t="n">
-        <v>1.32979506607633</v>
+        <v>1.3279079094257</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.968634074584761</v>
+        <v>-6.947484230878487</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.701528593491957</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.39369437160472</v>
+        <v>-31.39667911029697</v>
       </c>
       <c r="F28" t="n">
-        <v>1.472842517995394</v>
+        <v>1.471160699633175</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.104709802711605</v>
+        <v>-7.083501290922928</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.669366569987481</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.19743007993929</v>
+        <v>-31.20146839961136</v>
       </c>
       <c r="F29" t="n">
-        <v>1.50112053371363</v>
+        <v>1.499590274564286</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.387362845715426</v>
+        <v>-7.36472674392161</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.630472409502309</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.06446620468324</v>
+        <v>-31.06598668581885</v>
       </c>
       <c r="F30" t="n">
-        <v>1.607094646560879</v>
+        <v>1.606595967860453</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.412712346320379</v>
+        <v>-7.389157111235583</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.591013661002578</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.79966048124709</v>
+        <v>-30.80072384024064</v>
       </c>
       <c r="F31" t="n">
-        <v>1.553506242292624</v>
+        <v>1.552068874273751</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.404014803104138</v>
+        <v>-7.381608484633067</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.560862676458574</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.39352823630903</v>
+        <v>-30.39705565476351</v>
       </c>
       <c r="F32" t="n">
-        <v>1.506077986676682</v>
+        <v>1.50471884276768</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.421184995220743</v>
+        <v>-7.401369850389137</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.545081366233979</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.8960106750146</v>
+        <v>-29.89792472120299</v>
       </c>
       <c r="F33" t="n">
-        <v>1.4795209013756</v>
+        <v>1.478459986885479</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.682561080339751</v>
+        <v>-7.662804603590547</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.549387860400834</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.29317168328965</v>
+        <v>-29.29525928922182</v>
       </c>
       <c r="F34" t="n">
-        <v>1.471737602443471</v>
+        <v>1.471102031550772</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.663024608899558</v>
+        <v>-7.645165066814718</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.576589802921962</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.84189923794936</v>
+        <v>-28.84489619915878</v>
       </c>
       <c r="F35" t="n">
-        <v>1.497668894865588</v>
+        <v>1.497077325034692</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.676454710762973</v>
+        <v>-7.659665861181987</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.626120781560929</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.21602324586751</v>
+        <v>-28.21964111094903</v>
       </c>
       <c r="F36" t="n">
-        <v>1.406288467516081</v>
+        <v>1.404381754837984</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.558482975064316</v>
+        <v>-7.54538532566785</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.696956272453046</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.55739090777733</v>
+        <v>-27.55966674047388</v>
       </c>
       <c r="F37" t="n">
-        <v>1.512203912280926</v>
+        <v>1.512692812967618</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.481388225779934</v>
+        <v>-7.469908837656418</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.787419399041855</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.01874457621498</v>
+        <v>-27.02394892402481</v>
       </c>
       <c r="F38" t="n">
-        <v>1.377648665289693</v>
+        <v>1.378514019505137</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.452924427800755</v>
+        <v>-7.443009521874652</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.897643978454727</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.26800334875212</v>
+        <v>-26.27487240340013</v>
       </c>
       <c r="F39" t="n">
-        <v>1.431193068496146</v>
+        <v>1.431178401475545</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.419781850249938</v>
+        <v>-7.411226088232838</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.022956986975962</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.60974746419069</v>
+        <v>-25.61390312002757</v>
       </c>
       <c r="F40" t="n">
-        <v>1.455579434748318</v>
+        <v>1.457051025815259</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.119997727184448</v>
+        <v>-7.114722488775047</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.164821652217127</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.05887372645418</v>
+        <v>-25.06497031801722</v>
       </c>
       <c r="F41" t="n">
-        <v>1.4893624721987</v>
+        <v>1.489768259768654</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.146730816732739</v>
+        <v>-7.141876032913893</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.323689842743399</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.35462695429569</v>
+        <v>-24.35848438071368</v>
       </c>
       <c r="F42" t="n">
-        <v>1.501115644706763</v>
+        <v>1.500621855013205</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.884010254725331</v>
+        <v>-6.877405206448128</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.500915415298737</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.65281490755691</v>
+        <v>-23.65551363934745</v>
       </c>
       <c r="F43" t="n">
-        <v>1.450284640311449</v>
+        <v>1.450294418325182</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.868120982407857</v>
+        <v>-6.865050686095434</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.697304495015167</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.96742014587724</v>
+        <v>-22.96978153619396</v>
       </c>
       <c r="F44" t="n">
-        <v>1.565151856649615</v>
+        <v>1.564765625107129</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.786983024444536</v>
+        <v>-6.779453953869488</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.919301147963084</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.14592032202952</v>
+        <v>-22.15103422321231</v>
       </c>
       <c r="F45" t="n">
-        <v>1.616540207827758</v>
+        <v>1.616300646491279</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.662078677008593</v>
+        <v>-6.657942577199183</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.174355786754046</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.63310261374508</v>
+        <v>-21.6394094326034</v>
       </c>
       <c r="F46" t="n">
-        <v>1.620446524314423</v>
+        <v>1.620231408012279</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.529943488416483</v>
+        <v>-6.526257177238829</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.462519965351421</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.97401070900941</v>
+        <v>-20.97865037652611</v>
       </c>
       <c r="F47" t="n">
-        <v>1.690564660799718</v>
+        <v>1.690251764360235</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.504530430722259</v>
+        <v>-6.499088966079383</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.791504151303065</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.33538907602551</v>
+        <v>-20.33963273398599</v>
       </c>
       <c r="F48" t="n">
-        <v>1.727422883569389</v>
+        <v>1.727241990315314</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.48537041281082</v>
+        <v>-6.476281749045224</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.166280705307069</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.59329161270335</v>
+        <v>-19.59775527597285</v>
       </c>
       <c r="F49" t="n">
-        <v>1.880311906311554</v>
+        <v>1.878928317368217</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.229685131684901</v>
+        <v>-6.220484020761368</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.590063016802267</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.20804764960419</v>
+        <v>-19.21170951574751</v>
       </c>
       <c r="F50" t="n">
-        <v>1.895335824413583</v>
+        <v>1.894983815919165</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.221672049430028</v>
+        <v>-6.211341577920236</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.057149485514481</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.62242774006452</v>
+        <v>-18.62566915161728</v>
       </c>
       <c r="F51" t="n">
-        <v>1.855954874100583</v>
+        <v>1.856717559171822</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.260221868575652</v>
+        <v>-6.250468299876156</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.568839206618865</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.10178762079301</v>
+        <v>-18.10346943915523</v>
       </c>
       <c r="F52" t="n">
-        <v>1.877442059280674</v>
+        <v>1.878009184077237</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.279621447823571</v>
+        <v>-6.271383471252819</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.120840248695714</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.71251022702864</v>
+        <v>-17.71314090891447</v>
       </c>
       <c r="F53" t="n">
-        <v>1.970714532287678</v>
+        <v>1.971555441468787</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.190651300859453</v>
+        <v>-6.179822150649236</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.70015713891524</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.09680336922997</v>
+        <v>-17.09646113874929</v>
       </c>
       <c r="F54" t="n">
-        <v>2.029636843047737</v>
+        <v>2.030526642297515</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.172791758774612</v>
+        <v>-6.162070166715468</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.294579106094218</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.85134100146277</v>
+        <v>-16.84870582676151</v>
       </c>
       <c r="F55" t="n">
-        <v>1.991879043014553</v>
+        <v>1.98966432290384</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.402839087890428</v>
+        <v>-6.392958405012393</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.891281177643028</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.29572492706536</v>
+        <v>-16.2965902812808</v>
       </c>
       <c r="F56" t="n">
-        <v>2.014583590904506</v>
+        <v>2.014867153302787</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.273255960882848</v>
+        <v>-6.261595679505255</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.475969834890199</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.20044796124292</v>
+        <v>-16.20058485343519</v>
       </c>
       <c r="F57" t="n">
-        <v>2.059533120038922</v>
+        <v>2.059547787059523</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.434343848140828</v>
+        <v>-6.42093330230488</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.02272182497633</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.95157795568948</v>
+        <v>-15.94842454626032</v>
       </c>
       <c r="F58" t="n">
-        <v>1.930116219264816</v>
+        <v>1.929299755118041</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.593080123095823</v>
+        <v>-6.581952743466724</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.51716969265292</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.68514174846322</v>
+        <v>-15.6808443114272</v>
       </c>
       <c r="F59" t="n">
-        <v>1.995335570869462</v>
+        <v>1.994211099290071</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.387917838932604</v>
+        <v>-6.377460253244273</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.94007941584308</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.42814621349697</v>
+        <v>-15.4228220850189</v>
       </c>
       <c r="F60" t="n">
-        <v>2.066773739208823</v>
+        <v>2.065854605917843</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.425802753144327</v>
+        <v>-6.414675373515229</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.27591131130578</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.27167843772822</v>
+        <v>-15.26874503360807</v>
       </c>
       <c r="F61" t="n">
-        <v>2.004536681792995</v>
+        <v>2.003021089664252</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.280340131833007</v>
+        <v>-6.267643380999629</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.50926783454271</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.21554774988917</v>
+        <v>-15.21170010148491</v>
       </c>
       <c r="F62" t="n">
-        <v>2.022058882404019</v>
+        <v>2.022264220692429</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.366220426457235</v>
+        <v>-6.35318633415004</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.6341873037064</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.13060125557652</v>
+        <v>-15.12308685202207</v>
       </c>
       <c r="F63" t="n">
-        <v>1.988534962317583</v>
+        <v>1.987689164129607</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.428892605484218</v>
+        <v>-6.41651364009719</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.65073928699772</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.17246093237105</v>
+        <v>-15.16779681982001</v>
       </c>
       <c r="F64" t="n">
-        <v>1.837885104720466</v>
+        <v>1.837489095164246</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.420806188126341</v>
+        <v>-6.406456952971945</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.55893836676336</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.18705461786879</v>
+        <v>-15.17913442674439</v>
       </c>
       <c r="F65" t="n">
-        <v>1.841708308090393</v>
+        <v>1.841082515211428</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.517984977620009</v>
+        <v>-6.503616186438146</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.36801103126981</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.18076735503794</v>
+        <v>-15.17398141350666</v>
       </c>
       <c r="F66" t="n">
-        <v>1.89534071342045</v>
+        <v>1.894030459580117</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.441907141763945</v>
+        <v>-6.425426299615575</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.08634886799429</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.0480454856218</v>
+        <v>-15.03985151011285</v>
       </c>
       <c r="F67" t="n">
-        <v>1.709309113127469</v>
+        <v>1.707182395140362</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.23911602593118</v>
+        <v>-6.222864967105555</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.73373875920547</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.15290001589652</v>
+        <v>-15.14509716093693</v>
       </c>
       <c r="F68" t="n">
-        <v>1.676078533453049</v>
+        <v>1.674743834578381</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.363785701037512</v>
+        <v>-6.346380836591294</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.32207326363416</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.05704125825692</v>
+        <v>-15.04880328168617</v>
       </c>
       <c r="F69" t="n">
-        <v>1.662032416724402</v>
+        <v>1.661621740147581</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.152751719627128</v>
+        <v>-6.130682742629873</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.867060357908468</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.09654932274846</v>
+        <v>-15.08628240832794</v>
       </c>
       <c r="F70" t="n">
-        <v>1.546720300761346</v>
+        <v>1.544275797327888</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.1272506598093</v>
+        <v>-6.105680361512471</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.384049971259559</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.10801404385137</v>
+        <v>-15.09741956597077</v>
       </c>
       <c r="F71" t="n">
-        <v>1.445972536254829</v>
+        <v>1.444408054057417</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.107557740149366</v>
+        <v>-6.083093149787324</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.891662692010541</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.21791402921276</v>
+        <v>-15.20712399105748</v>
       </c>
       <c r="F72" t="n">
-        <v>1.363015867737017</v>
+        <v>1.362008732322432</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.965224083232871</v>
+        <v>-5.939987029785856</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.403402652617542</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.33473195929082</v>
+        <v>-15.32576063169003</v>
       </c>
       <c r="F73" t="n">
-        <v>1.28596023050757</v>
+        <v>1.284278412145351</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.108144420973396</v>
+        <v>-6.085307869898037</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.928874514766652</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.46927253926146</v>
+        <v>-15.4622470363937</v>
       </c>
       <c r="F74" t="n">
-        <v>1.165656438533394</v>
+        <v>1.165592881444124</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.009557597502056</v>
+        <v>-5.986897050673905</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.484456401331766</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.70168125869399</v>
+        <v>-15.69329172291036</v>
       </c>
       <c r="F75" t="n">
-        <v>1.097454792739931</v>
+        <v>1.093900484747683</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.042524170805663</v>
+        <v>-6.019917403053048</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.075195100181773</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.72495293138051</v>
+        <v>-15.71578115449817</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9116138637147596</v>
+        <v>0.9087097936358121</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.152453490208246</v>
+        <v>-6.128541357622165</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.706659095424664</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.79368747892246</v>
+        <v>-15.78570861971566</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7490886084379059</v>
+        <v>0.7474312351100217</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.073916483898124</v>
+        <v>-6.047877633324935</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.378438418604796</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.94884988985774</v>
+        <v>-15.94054346719085</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7619906975596945</v>
+        <v>0.7600546508403961</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.049060772986729</v>
+        <v>-6.023696605361174</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.098465971631386</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.06110637652898</v>
+        <v>-16.05204704680458</v>
       </c>
       <c r="F79" t="n">
-        <v>0.485932924819342</v>
+        <v>0.4835568674820213</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.066001181780589</v>
+        <v>-6.041957046009101</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.86318825115584</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.55369337439813</v>
+        <v>-16.54688787683938</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4720041442555012</v>
+        <v>0.4695840858563783</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.997393748417172</v>
+        <v>-5.974151409771858</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.670912538517182</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.0624874300311</v>
+        <v>-17.05739308487577</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2993293107229322</v>
+        <v>0.2968994743100755</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.074791616127302</v>
+        <v>-6.049632786790157</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.525011186522408</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.48615409809734</v>
+        <v>-17.48095708379781</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01615341339222248</v>
+        <v>-0.01745877822568877</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.116866409223972</v>
+        <v>-6.089077294192427</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.425637074545657</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.99368190095178</v>
+        <v>-17.9886560018926</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.01939482494498709</v>
+        <v>-0.02154109895956275</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.139448731942252</v>
+        <v>-6.112246297734737</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.375404530791049</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.78076800546329</v>
+        <v>-18.77603544681612</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1136891003871757</v>
+        <v>-0.1147451258704293</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.135488636380051</v>
+        <v>-6.108105308918461</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.375304240844996</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.46853882448028</v>
+        <v>-19.46117109113185</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2778326169369781</v>
+        <v>-0.2798859998210824</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.223040971352764</v>
+        <v>-6.196552332147819</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.433361025798146</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.13381043389574</v>
+        <v>-20.13066191347344</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4099726945359554</v>
+        <v>-0.4102024778587004</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.453181191599051</v>
+        <v>-6.426809888558912</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.546844489077499</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.88294317809938</v>
+        <v>-20.87814217335607</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5049758759738466</v>
+        <v>-0.5051616582347894</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.781365555554451</v>
+        <v>-6.756617402794127</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.720016831982589</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.71181562430241</v>
+        <v>-21.7071172887033</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6253578920578934</v>
+        <v>-0.6246734310965253</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.033882760230608</v>
+        <v>-7.009247054628224</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.954211348316043</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.705428045893</v>
+        <v>-22.70111105282951</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8493135186175333</v>
+        <v>-0.8505113252999276</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.082313262254267</v>
+        <v>-7.056572641099961</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.247914505394697</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.78580567235073</v>
+        <v>-23.78232958846835</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.115671501733927</v>
+        <v>-1.117240872938206</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.467117214735409</v>
+        <v>-7.442413063036888</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.596483108819195</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.0197274484708</v>
+        <v>-25.01547890150345</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.073674932747127</v>
+        <v>-1.076857676217489</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.824097829136938</v>
+        <v>-7.79957945969936</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.995855297406624</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.27608976611</v>
+        <v>-26.26965583307314</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.303072023949644</v>
+        <v>-1.305213408957352</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.129660758319122</v>
+        <v>-8.109518050027432</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.441696639478699</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.5567895599327</v>
+        <v>-27.55145076443403</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.564418775027449</v>
+        <v>-1.566956169591378</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.450633837145823</v>
+        <v>-8.431762270639531</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.91530560727857</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.04956469362844</v>
+        <v>-29.04337032192806</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.839117403858799</v>
+        <v>-1.842290369315427</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.781590267994764</v>
+        <v>-8.76336893940177</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.40717249110623</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.66283917957304</v>
+        <v>-30.65458653598169</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.114006703957959</v>
+        <v>-2.116006307766527</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.095591623029243</v>
+        <v>-9.079404121292887</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.897974777996252</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.495358733961</v>
+        <v>-32.48585939361858</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.149950682443518</v>
+        <v>-2.153993891122457</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.460081751978352</v>
+        <v>-9.443346681472903</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.370053549118822</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.21145147882025</v>
+        <v>-34.20044876886626</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.511522074293079</v>
+        <v>-2.515540837937684</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.858555367659388</v>
+        <v>-9.846093289155622</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.796280033533783</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.20154616903231</v>
+        <v>-36.18901564443241</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.904867121770722</v>
+        <v>-2.908284537570695</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.32633554468581</v>
+        <v>-10.31298366693227</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.16008677824563</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.26602709872449</v>
+        <v>-38.25332790338768</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.173136706572079</v>
+        <v>-3.175991886582357</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.68743759187615</v>
+        <v>-10.67556219419641</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.44111092132453</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.46395347084911</v>
+        <v>-40.45368655642859</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.536380138770125</v>
+        <v>-3.539831777618168</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.85133176907574</v>
+        <v>-10.83524204747672</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.62340390150941</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.37229907723949</v>
+        <v>-42.36153837312541</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.991277782702227</v>
+        <v>-3.994240520863578</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.13012738566156</v>
+        <v>-11.11532836187541</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.68715522934863</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.60698589199644</v>
+        <v>-44.59208175456265</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.217619244612921</v>
+        <v>-4.220176195204318</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.2692929661283</v>
+        <v>-11.25517351429665</v>
       </c>
     </row>
   </sheetData>
